--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/24_Çorum_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/24_Çorum_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B27EB56D-C1B9-433D-996D-3921BF986F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28160C27-AAD2-48C3-BC43-04BAE8864886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{D1A82C74-D1DA-42EF-B5B0-7F9DD90633C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{8415610A-A02F-4F2D-B663-3496AB06F1CF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -962,13 +962,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8043626C-3ADE-40E2-8AB7-43C8977FA9F1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C817E7D7-11E3-4459-85B9-1D8F9873D8A1}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6E8154BE-96F9-4F0A-B72B-486CE7A69BA5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{EA903E33-3C5C-4112-816E-78C09ECFF7E2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{41088272-693A-444A-B092-7647E436E7D7}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{BE1ED7AA-E3A2-4061-B610-A06983269FCE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D566D2C6-3568-463A-9843-42C3E5D19C1F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BD9EA72A-913E-48F8-94D2-32901DC2107F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7CDDB54F-39ED-4955-910D-639CC896FBE1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{2E84E862-A1AC-4857-80AF-6C3D5FE68B6B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{754C62BC-A01E-4D33-B8AF-EAB98815741C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{ACD3F001-C908-4768-A8D3-9CA8B8C4ECF4}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{89FEAA41-F5C9-48D3-AEC9-618D929AC939}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0F7EDBBA-02F8-4D07-9F6D-E33FBE5A7419}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C05A66-EF07-4A07-A84A-B3D052A41384}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B66E9B-E05A-4C06-8FCA-3E01DD3D8114}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2578,18 +2578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{895B90A6-CDC3-4486-BBB8-7A274DB2A466}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3806D540-06DF-4FCB-B4B0-5E53FB978B1E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{647ABFCE-D5BE-49DB-A43A-5203AE9AFEFA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A313605-7CB7-429D-AC0A-07B0592D145B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0932310B-AA8D-438A-BA3E-9479B3B96EE9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2329081F-E954-4BCD-B16C-365A5D09B8D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0EFBB77-6F40-44DD-8032-28444D58BDBC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30FD08B9-F6A8-46A6-8335-831AF4C64E19}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C188A361-A269-493E-875B-996A97DEE69F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7476519F-2F96-497B-9046-A94B6CCD3BC0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B26408A-23BD-4C62-825C-3F2F5D361761}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{353D34FE-54BA-45AB-809E-A497F9198C9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30E13132-87F3-46A3-B76C-56FDE82A2820}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD45F71E-3BCA-42AF-A0F4-061304E8C795}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6BF83D8F-CEF7-4793-9718-C2E9CAF1EC9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C0927D60-B28C-4E05-B01C-E9BCA409BA8A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6515F762-0A79-4069-9D3E-0A7DCEEEEB30}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F3695AB6-DE2E-4FCC-AEC5-38DBDE1A288E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{68E4A7C0-A613-4E00-99CB-097789CA4C10}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65ACBF94-F9AA-4817-8AE7-C05A82BF3BAB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E794DE0-3B12-49CF-BF1F-B2ED94DA80D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{869DC2B2-DE63-4978-B3EA-EF71BA73C300}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA4B434D-C987-4039-9CEC-7B3AC43099B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F3DC65C-CB9B-4BCF-B0B7-013746D5993C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0943ED2E-A6A2-455F-8029-82D34A2E121C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B051E00E-9DE4-4190-94C3-36FBF4F37C6C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3827,18 +3827,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94735411-3171-4784-9D33-90FD93EE964D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91D71343-2589-4301-87C4-F9BDA455EB9C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0056B0AD-0C6D-4A5C-B334-E969A7423A0F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D2EF6C1-8450-4FCB-952D-C58BCCFB0D4B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A0F16926-44EC-4692-B93B-5966A5E97C66}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{681F27DB-715E-47FC-812E-5E99056521C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8C8D959-C368-4A76-B611-4521BB2C2D4B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F312DC9-67F1-459D-94EA-9122521FF402}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3511A46-DBDB-4A37-AC31-273644929CCF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECD5FF4E-5FDB-4D0B-8D74-A3B4C0B4A4CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C53212E-2B8E-4579-ADF0-B326C82761CC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6B53DD9-5C40-4754-BB29-2DF3A511912A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA027A17-27F2-44C5-9DEA-6CAEFE942565}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92F2186A-727C-4910-A973-2893826FE42E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C59DF92-32BB-4DF9-814F-15D8FADDADFF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F626DFE0-90B7-4CA5-B42D-CF04CF792FAF}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{79AD4A47-B02D-40E9-9FA7-E7DC18F15732}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F38C8EF1-E4E7-427E-A14C-02BFD9C2FBF4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C22E535B-4A72-41EC-816F-F5637AF95376}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{790492F9-C431-4442-8F80-3A3B13C6C7CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9EDB0EE3-2E63-4815-ADEA-53C87E7FAE50}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED0AE0BB-BA05-493A-8272-318693591D88}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B3F0AA3-A94C-4AC9-A319-0DED9779328A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC17B98A-E00C-48A5-A544-D234143E28C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3851,7 +3851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA54EB56-C46E-4D5F-808B-00F5072613B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031975F7-73D8-4966-B9C0-79BEA33E7DD0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5076,18 +5076,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9215A9D6-7D79-4442-8FD1-E38CD12A4958}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F43F1CE0-7AF9-4EC8-B96C-5BA9FFA6EE75}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BB5E9693-0236-4B2B-860D-739919C75466}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E0C7BA4D-C952-49A7-8D1C-7960A06D5948}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B0EC6F6F-C9F9-4CAB-A0F6-407C117AAF67}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B40F4A7A-1559-435C-966A-AA84ABFA892A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90B0FADE-34FE-43EB-934A-ECCC0EF4D6BA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{722D4E4D-905A-4FF4-AF74-1E2F37F22340}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D49187C7-C8DA-42CA-9A57-76745AC252EA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{042025B6-48EF-49CC-A09A-7DA50B2FC9A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D9FB81A-236F-408C-A0F4-28D05E692381}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8805306-5545-48EC-8F33-69CE5CEDC2D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{120436FA-38CB-40DE-8D48-53DD388CAB17}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA57D7C3-CBA5-4296-9B82-D52C66B48C2C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B358FF4E-9E16-41DE-BD55-2EBCFEAC351E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92C0CB58-A195-4E69-B3E8-93F1F6D2A663}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BAB8149E-2E25-49C3-AB11-C62C32B0F86E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{813C71A8-4AD6-4E49-AF53-AF1BA0E947BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00C52DAE-B11D-48CC-8E66-CA32C091558F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A384CB8-1AFA-473B-8D70-70C1EE725093}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A1863B7-F7C8-4AE9-9F1B-F3FD07A294BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DAA65838-BEF3-4C6B-824A-76A269D63D43}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA5BDDD5-1DDB-40A1-99A1-DEDE86490FEC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F3857A7-C426-451C-B6BB-30AF223E737A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5100,7 +5100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C32E9C7-1F68-4633-AF65-BFBA90746CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40ADF2F-A8B1-456B-9137-B347F1032C33}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6312,18 +6312,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82210EDF-BC95-4285-A996-662F5F84A925}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E92FBCC-BB95-4C32-9CD5-FA4CF01F3EE1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{02D1A5FF-107B-4D79-ACC2-88B397401ECF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5869DDE0-570D-407B-A3C4-C34F7B90221A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6C50A2F8-4D70-42BB-B557-41A2A5C9C671}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9237D573-2D5C-4799-BD1B-DC0B6AF02DA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D6E1DC3-B5A0-4A52-973D-240A448C3CE1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F6D82F8-C129-4B1C-B440-D21BF821CFBD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE5433B9-20BD-456F-A114-4E3BC4268A36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D56AD7C0-AAD3-4A26-984C-B2AEE9F851A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02CBBC88-E0BA-42B1-AC2B-B480F62A567D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{704FFB3E-AB57-4D8C-BFF3-8990F9376942}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E3C3C3B-9F39-4A2F-9013-B3FF9A9C54D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4034DC6B-4FF9-4ABE-A8C2-79BFC8BA42CD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{99DC5287-18E0-41EC-A218-7F27C65DD834}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F89A990-5729-4EA0-8197-35D9F22F8396}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F4F95574-8123-4BD7-BC64-D1724AAC48B8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7135F89E-8B75-46A3-9EFC-38F219E290AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9541BE8-E0F8-4179-9583-677F5B1C69C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DA287E3C-15E2-43D7-BA9F-AC833A2D0558}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AAD534DB-EE80-4CCC-A765-C919EDDC7C89}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8D201FE-306E-4309-AAAE-A163B1DFDE29}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57B88427-0783-4DE6-B5F8-E9997A8CB65C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9BD870DD-4748-4F3C-A127-ECC10CD3FF17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6336,7 +6336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4413DCAB-C398-4352-92C1-B44BA0278A50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C569F-98F4-4DAD-B59B-0D05858052F8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7573,18 +7573,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66C14262-AF58-44D6-BE1A-73E86ABFD25B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32288423-C141-49CA-8B93-0B26865472F5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{48F3AF28-9B05-45B7-9B34-0CEB33C8F980}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{997432E5-E764-440B-A864-B19834EBCC89}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F63C7616-C045-4F93-9645-8FC7B6BD18E4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8EAA3ACB-26D4-48FE-BDB4-C83E4609B6C8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A712822A-E4EE-43A3-B080-518421F241B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8EA3157-99FE-4FAB-B2AB-5D81679D661D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFD5241E-8C75-4812-92B6-698ABA731F75}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{506D7D0A-E9AB-4E5A-853B-CB09704B42B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F158D751-EE41-4B4D-806B-4D71192E10C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6588162A-D91D-4E30-8EFD-5AC2DAF2916A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44FAF940-008D-460A-8677-18AA89001413}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D457A600-9A31-47CB-8DB7-0ED06BA0BBA5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D75EBBFE-CE82-432C-BDED-B798987C4AE6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3FB5B1C0-CCDF-4402-9C16-1D2B4D0DE928}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2190DDC5-228A-4D70-A13D-122EB3E73B69}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADB79037-ED9F-4F5C-8534-53B8A68E14BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1B28DB5-0E5B-47E7-A48F-95B8DA7319DE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C300B60-D267-4BDD-8B66-31D7CA6863C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5DDC62B4-8E8C-4EAF-AB83-EEBDB29CC288}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75F335DD-B7F0-45DB-8F54-1C9E747E4972}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F805578-2633-4EF3-AA6C-7F0C6AFBABA2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65DE1B16-B406-4C39-A9CC-56EE004B799C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7597,7 +7597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601AE970-182C-4F0E-B4DF-CBC81DCA42CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5209878C-FCC7-4D53-AF1C-F960C16F2856}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8834,18 +8834,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{411271C3-7C18-4432-946F-52DC6569F154}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB425FF9-C540-48DB-9201-391F8CD43A30}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3565C782-7AC5-41F2-8F6C-2EC670D542CD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{841DBAB3-F2AB-48D9-AC00-6D50868E4E0D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B7415C83-18DC-4423-9798-60CE12CA65B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5B46A715-3DB7-47CF-A506-1B732E84CA15}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F694857-EA2C-4A0B-B765-E11A12EB5748}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB1EF193-B735-4F69-B4C8-98B69C685A28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADC6DE5A-EA8D-4AB6-8A93-55A090799B6D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA5088FA-F9A5-4614-B88F-1A9AC62EC8A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F3016FE-5C58-4CAD-B279-2933C97415EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5D17E04-3DBE-4CD7-B49B-D0EDAEC072A1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE65DD67-2456-4BF5-BC81-414AFE7609C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8D66792-C24C-4079-80F9-6A73AAED5570}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F4A1EFDA-6042-45A0-ABFF-9385DB7C5E8F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D8E6C24C-7B0B-464B-9125-3CB84DD83E7B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{980BDBF8-1AFB-44D5-8565-854FBE4C7389}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8EF022D9-4D32-4EF0-AB9A-317F897345C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75C6D7D1-0761-430D-89C2-89E64B6E2DEC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C5EEE9D7-1BEA-4563-AE79-476C21587C34}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42BB96B1-2F13-4179-B988-4641944778EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6CDC9A96-2FCE-4CBF-AC25-20D6937F6F47}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4ED67BDF-1494-4E2E-B941-01D9B5F2FB7D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91DC44BC-916D-4CE3-A5FC-931616E67488}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8858,7 +8858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5E2B80-8C77-4AB9-800D-F03E3CAC9E43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D09C5C-495A-467F-A801-BA984460DC1D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10095,18 +10095,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AA6BE81-57C5-490E-8CC9-8B2C89CCB85C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2E4DC98-A4C8-4C8C-88BD-94A15617D193}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{909084DE-02F8-4A12-BEF4-26E002CBF95C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7F201E5-66E6-417B-8262-6613448305EE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EAD0EF9C-6C7B-4AD7-AEE6-AB48CAB65883}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5740212D-97A2-4459-BD83-5693171F2217}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B480DF1-206B-436E-9F67-95E122FC4159}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F95039CD-CA3C-4CBC-A766-E1BFD42DC7DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A97A25EB-AB31-473F-91B6-B08E45754559}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35DB8359-DC35-46A6-B029-41AE85542E46}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1A75216-B11A-48DA-A2DB-FFF2FE90F95A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2F30502-F182-4811-B5F2-9243A8DB963B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C51DB537-FB74-473F-B999-F9472BE121DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E0F0642-5028-4833-8CF4-6B58E48024D1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3D4ACC93-9AFC-4CE7-85DB-1476DB288CA7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{155714B4-C8AB-4847-AAB6-B566CDAD7B19}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3CFCF7A9-5CF7-476B-BCCD-2AE8FC092D26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D25EF1D-D89E-4762-BEF9-641694EEFFCF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9486B134-CD0A-4254-BF9E-38B5B6373D99}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2725798C-7D79-4B4D-9FB7-D16F003D5B01}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F77B8CF-7DA4-48FE-B3FF-E6C65E5BEBC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82FD4976-D8F8-43AF-8B21-C1D7324A316D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47C66AF7-9F43-4D9C-B058-FB45DECC9378}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F983307-9DAA-4F28-8EB3-3D0CBAC7ADB5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10119,7 +10119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A0DDE6-17E9-49AA-8A1F-3A2B82199597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F589C716-E8F7-4A19-9B8C-55CDEFB2A2FE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11356,18 +11356,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{442B36CA-F4FE-43B8-BEDB-4CFFBCB32E48}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7702965-C5BD-415C-A810-485F00DF56DD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F316EB90-ADC5-4663-B589-9ADA93CF676F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC899302-BD0D-4E05-A15A-286747EA5EF6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DAE48224-A07B-4A7D-A90B-726E75D72680}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{651EB15A-9D72-464E-A455-5E0FB98F17B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CD83CA6-82C5-4D66-94D2-0B0408A1494D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D17F483-B456-4145-A4F0-BEBB7E32D9AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{493308B7-E3AA-4F80-A18F-AADD546788F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3936F7B5-7ED6-4412-B609-9DD84B6DD6AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88BC274D-2C36-4A3E-AAD2-D617E352C3B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A2ACD21-F0F2-4330-9232-93BDD8445B3F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F0201D9-2B36-4A43-A0CF-D0A31084C20A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB4FB606-D7B1-41E8-AE64-9C6D77742F6E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6AFB1EF3-C6C9-4250-8756-4298833B6E92}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F48F4A1-C14E-4CFE-94A2-8240C5B282A7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D99F2717-0290-4F0B-95E2-2B4AD3A8F36B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F3B1841-EC79-4E50-9AA7-CC697BE6B916}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{823A0854-873B-4A82-B45B-155B223F6D9A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7F79D8B-3832-4829-99CF-48F3A3DA4C84}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0007102-BA21-47BC-81A4-18EAE17C1F3F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB5CF942-0DE4-43C9-901B-5940089A7DFA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B1F669E-01DB-4471-9288-80B29BBAA944}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F6FB0467-41FA-4C3E-85F4-D9617B8CB954}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11380,7 +11380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFBC2D2-8654-407A-818E-C7917488C8AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27767579-E0B6-4932-AA99-F3FC925B65EB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12617,18 +12617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE3FEA54-8880-4E6F-9C3F-21E7E4BED676}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6F2E46C-DF5C-44D4-BA00-3AF76637CB7C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D3175034-20BF-455A-B9E7-1F47331447AB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{34850A2D-5367-4742-8FDD-49ACCE9711D3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3941C737-AD3B-480C-A0E9-F1411E0AAF99}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B432E47-B734-444A-810E-853127FF148F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C49607F5-91B2-4F58-861D-A67AFD7B5A93}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{17C9A891-FEC7-42D2-9D9A-7B16AD26BE56}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1057A8B-9F2C-4C55-8FD7-FDB9611A000B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD90CC47-884C-4F16-8FCE-23A32F7C829D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{109D556E-9BA8-46FC-B4BD-EE3DCD571792}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25930D77-1D5B-423F-81CC-B639BA4ECDBC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42439B31-877F-4A65-BA61-D3BA17B49957}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E699608B-9062-4112-8766-A9B85D8C902B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0F52475-8F86-415A-B633-39FABE27E80B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5A9D5C0-861A-41D8-A3E0-BD31D1EB56F1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4485BE1F-B462-47CF-8E1A-3130CA3FA8B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1EF5946B-B404-481F-A564-41C85760EB82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{554039C3-1844-44BF-A621-385A31EF6526}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE4D9DFC-DEDF-475E-9706-8CA2C3248F6E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B6D99A5-F822-4C1F-9542-0026B4130D6B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{294B7159-1CB5-467A-8B13-28617F437BC2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AA343BC-12C5-4FD6-809D-E5DE1BCDBEEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0930686-0F96-4C55-8FB2-C89E2BED2B78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12641,7 +12641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD51600-8AED-4703-BDEA-749C50CD53ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97333BEA-A8D3-4CC3-83B7-25A1DDA908B7}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13878,18 +13878,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F53B269-53BF-4E4C-AF11-5F5419C7E815}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0F85CC4-E145-42A2-A741-A4C08CB31B12}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3130B6DA-0CB6-4679-B6B8-5377A798685E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08FD5D73-F2C3-4A82-9BAB-D58D881367FB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BC3C27CD-FD68-464B-BD7C-8F3EC3E5F16A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4FDCB1A1-DCA3-45C9-A224-0C72D2A8D8AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8EBB2A63-20B5-41B6-B59D-466AF94DE2F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{675EA43C-10B9-4EAC-AFF0-4CCBD5A16DBD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{862DD27F-6F14-4772-8225-104E6979E85F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34E6CF79-BD48-4F8F-9CBE-A914FA0163E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86661C61-98C7-42D5-B632-3CD309728A28}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88CB38D5-7B2B-4FD5-A5BC-559F9F64B31B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D4F23C5-5B83-461D-A7F8-18587CCE4876}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB3E08EE-6E02-465B-9E3E-A2A128FDC272}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB820340-56EE-4ADE-8CE4-D4F34BAC77D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43081306-464A-4B75-A774-9A56AC027AEB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4B2C6A29-D79F-456D-9AEF-82EEDB356CB6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E91C0D51-A9D9-4D23-BADB-C6A42844ED39}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80397DFA-4C7C-4457-B81A-0CB6CE1FD8CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28E24CAD-2496-47EE-9221-41F68ADDE51B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8F4F402-DBFA-41B8-A9F2-0A0CCF0FB31D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2117CA4C-3461-40BE-8986-47BD1D09AF3B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6003907-9763-494C-9CBF-FDF84117AA90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EDEF394-F860-400D-9F79-FAD3E5C346B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13902,7 +13902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CD31FE-EC29-4FAE-8A9D-05BAF486AA16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E55B2F-79CE-4E9A-8854-92F8E3690747}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15135,18 +15135,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{934B1289-E4A8-4CD2-B876-DDB53DB5C684}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A8F7279-A72D-438E-9A19-4B4E3B90802D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A413AFF0-741C-4DD1-87E1-2EB8E688760A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C7EF171-1160-4093-966F-695AF3630A17}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{965B68FF-EAEE-4AEA-9821-E62B2724EB25}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD2D8299-8075-4AF8-85CE-30541AAF309B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27221F54-0A96-49AF-B2CA-D1194C69A43E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{516241B8-2DC6-4AF0-BDB5-26E25ED9C69C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99238DCC-A061-45DC-98B2-BF11307495D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B287F4C2-C239-4A49-B383-88FF9132B7F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C28FEA94-830B-49EA-8466-9B2C21B2761F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F2A6473-21AE-42F5-8C57-B2B5D8057B44}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BBA8C36-E728-44BC-AC94-D76D55FBBA8B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77732ACF-6378-4513-A7E8-B7D41382EAE0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D15BD6A-FD20-4929-AC91-786A0669E6CE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57E45D44-C3EF-48EF-86C3-F7E1DA3F728C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AF249F41-A05B-44DA-A1E6-BC18D41B5316}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D7B6DAF-1E14-4A35-A278-8E4CE3DA2724}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD632017-14BB-4F63-A899-4F2000D8E26E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42920713-3C29-42BE-A383-1A912833B013}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F0B676C2-8FC9-4BB2-96FF-FDA46E8A2C1E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{05FD4614-71E0-46DE-9004-D136969E6F7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B2A439C-8E80-4794-B8C9-1AA4F2BCD3B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{815B0EDD-AAD4-482A-9047-2DE6400F9ABF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15159,7 +15159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3DB9EC-547D-44FE-B3EE-5372842C0665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB44F9-A337-43B3-8710-1509B0315A92}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16392,18 +16392,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB3666E2-87C8-4ECB-B02E-84D379FC88C4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46DAC19A-6DDE-461D-8CB9-2250BD3D8E78}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB95BE32-F299-4EF1-AD83-936808CB996B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A3C72C7D-FCD3-4753-95FA-3DF4B06AA0B5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3B25E5B9-7D4B-490D-9CDC-B9C56D2E1ABA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E404BDE-ED3D-4909-936C-669BDD7A1AC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A0725E47-DF71-421E-8398-63F7DA0E30CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8E807EE-3AF5-406F-8757-F3E9565FDA41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FFDB608-5693-4BB3-9228-8D5AC34C9B3E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB12C58C-02DC-4D26-B9CA-9FC20223C144}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1FC0373-8D92-41F8-981B-F0D06717EDF1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D55BF213-7727-4D24-93E0-17AF8FDDD56E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46989699-0E41-41DE-B579-4B59661CE12B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2FE07FB-0E9D-45F7-96DA-430A094304F0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA956CF8-7716-45BA-919C-63D38CA77DB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02ABFBB6-C805-4A62-873D-739BFDDA5E44}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0B8C582D-D79C-4CA5-B88E-60C451CF9CAE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17BCB329-ACC7-4B92-9C62-F41EE0F0B838}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{726CD4EE-A283-492D-B8CA-AA4366172DE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC3937E3-2DE8-419D-9B9A-6D5A7ACCA853}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D13EF1BB-01D2-4A32-848F-04B5046B6D31}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6EA10EBF-5EB7-4337-A972-4BBEBDA95B08}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBABFF38-AFF7-40AA-B500-028791868163}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F6F629B-6B4C-4E23-BD27-8A60E4EA4B4F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
